--- a/raw_data/raw_artificial_dat/customers_db_1.xlsx
+++ b/raw_data/raw_artificial_dat/customers_db_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CD598-2C2E-4CED-8CAD-496FE4F19F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187DD312-989D-4EF5-B692-218FEF90C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,6 +195,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -314,7 +315,7 @@
     <tableColumn id="6" xr3:uid="{5F26AE8C-F31D-4536-B2A6-FBBB33C538FD}" name="deposit"/>
     <tableColumn id="7" xr3:uid="{BBE43139-B1A2-4ECD-A851-06E7C0B0CF73}" name="cups_bought"/>
     <tableColumn id="8" xr3:uid="{05D76D34-D881-471F-9D81-E7C09A18CC7E}" name="account_value">
-      <calculatedColumnFormula>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -609,7 +610,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -700,8 +701,8 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -754,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -781,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -808,8 +809,8 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -835,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -862,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -889,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -916,8 +917,8 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -943,8 +944,8 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -970,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -997,8 +998,8 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1024,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -1078,8 +1079,8 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1105,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -1132,8 +1133,8 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
-        <v>50</v>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1159,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>
@@ -1186,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*10</f>
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
         <v>0</v>
       </c>
     </row>

--- a/raw_data/raw_artificial_dat/customers_db_1.xlsx
+++ b/raw_data/raw_artificial_dat/customers_db_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duke\Lectures\02_IDS_706_DATA_ENGINEERING\group_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187DD312-989D-4EF5-B692-218FEF90C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC5BE4-B897-452C-8898-0201A5F2844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>customer_id</t>
   </si>
@@ -174,6 +174,69 @@
   </si>
   <si>
     <t>Shinji</t>
+  </si>
+  <si>
+    <t>Gallagher</t>
+  </si>
+  <si>
+    <t>Noel</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Yorke</t>
+  </si>
+  <si>
+    <t>Thom</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Shinoda</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Bourdon</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Barlow</t>
+  </si>
+  <si>
+    <t>Bon</t>
+  </si>
+  <si>
+    <t>Bowden</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Zoldyck</t>
+  </si>
+  <si>
+    <t>Killua</t>
+  </si>
+  <si>
+    <t>Sakuragi</t>
+  </si>
+  <si>
+    <t>Hanamichi</t>
   </si>
 </sst>
 </file>
@@ -301,8 +364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC259C22-0E4E-44EF-BE63-246EF4778F13}" name="Table1" displayName="Table1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:H21" xr:uid="{DC259C22-0E4E-44EF-BE63-246EF4778F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC259C22-0E4E-44EF-BE63-246EF4778F13}" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:H32" xr:uid="{DC259C22-0E4E-44EF-BE63-246EF4778F13}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
     <sortCondition ref="D1:D21"/>
   </sortState>
@@ -607,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,6 +1254,303 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44898.708333333336</v>
+      </c>
+      <c r="E22">
+        <v>989958</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>14021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44898.708333333336</v>
+      </c>
+      <c r="E23">
+        <v>989961</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>14022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44900.625</v>
+      </c>
+      <c r="E24">
+        <v>989960</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>14023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44900.708333333336</v>
+      </c>
+      <c r="E25">
+        <v>989963</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44900.791666666664</v>
+      </c>
+      <c r="E26">
+        <v>989959</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>14025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44902.541666666664</v>
+      </c>
+      <c r="E27">
+        <v>989962</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>14026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44902.770833333336</v>
+      </c>
+      <c r="E28">
+        <v>989965</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>14027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44902.791666666664</v>
+      </c>
+      <c r="E29">
+        <v>989974</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44904.583333333336</v>
+      </c>
+      <c r="E30">
+        <v>989964</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>14029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44904.645833333336</v>
+      </c>
+      <c r="E31">
+        <v>989966</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>14030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44904.708333333336</v>
+      </c>
+      <c r="E32">
+        <v>989967</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>Table1[[#This Row],[deposit]]*Table1[[#This Row],[cups_bought]]*2</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
